--- a/Manual Testcases/Testcase_Brand page.xlsx
+++ b/Manual Testcases/Testcase_Brand page.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anhvtl\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LanAnh_Central\Manual Testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -4278,16 +4278,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -4295,14 +4286,23 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4534,7 +4534,7 @@
     <col min="4" max="4" width="41" style="21" customWidth="1"/>
     <col min="5" max="5" width="31.28515625" style="21" customWidth="1"/>
     <col min="6" max="6" width="44" style="21" customWidth="1"/>
-    <col min="7" max="7" width="25.140625" style="21" customWidth="1"/>
+    <col min="7" max="7" width="25.140625" style="38" customWidth="1"/>
     <col min="8" max="8" width="45.7109375" style="21" customWidth="1"/>
     <col min="9" max="11" width="19.7109375" style="21" customWidth="1"/>
     <col min="12" max="16384" width="14.42578125" style="21"/>
@@ -4653,16 +4653,16 @@
       <c r="B4" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="30" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="29" t="s">
         <v>318</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="F4" s="30" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="29"/>
@@ -4695,18 +4695,18 @@
       <c r="B5" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="31" t="s">
+      <c r="C5" s="34"/>
+      <c r="D5" s="30" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="29" t="s">
         <v>318</v>
       </c>
-      <c r="F5" s="31" t="s">
+      <c r="F5" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31" t="s">
+      <c r="G5" s="30"/>
+      <c r="H5" s="30" t="s">
         <v>19</v>
       </c>
       <c r="I5" s="29"/>
@@ -4735,7 +4735,7 @@
       <c r="B6" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="32"/>
+      <c r="C6" s="34"/>
       <c r="D6" s="29" t="s">
         <v>21</v>
       </c>
@@ -4817,7 +4817,7 @@
       <c r="B8" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="32"/>
+      <c r="C8" s="34"/>
       <c r="D8" s="29" t="s">
         <v>30</v>
       </c>
@@ -4857,7 +4857,7 @@
       <c r="B9" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="32"/>
+      <c r="C9" s="34"/>
       <c r="D9" s="29" t="s">
         <v>34</v>
       </c>
@@ -4897,7 +4897,7 @@
       <c r="B10" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="32"/>
+      <c r="C10" s="34"/>
       <c r="D10" s="29" t="s">
         <v>38</v>
       </c>
@@ -4937,7 +4937,7 @@
       <c r="B11" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="32"/>
+      <c r="C11" s="34"/>
       <c r="D11" s="29" t="s">
         <v>42</v>
       </c>
@@ -4977,7 +4977,7 @@
       <c r="B12" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="32"/>
+      <c r="C12" s="34"/>
       <c r="D12" s="29" t="s">
         <v>46</v>
       </c>
@@ -5059,7 +5059,7 @@
       <c r="B14" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="32"/>
+      <c r="C14" s="34"/>
       <c r="D14" s="29" t="s">
         <v>55</v>
       </c>
@@ -5093,29 +5093,29 @@
       <c r="Z14" s="5"/>
     </row>
     <row r="15" spans="1:26" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="34">
+      <c r="A15" s="31">
         <v>12</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="32"/>
-      <c r="D15" s="35" t="s">
+      <c r="C15" s="34"/>
+      <c r="D15" s="32" t="s">
         <v>59</v>
       </c>
       <c r="E15" s="29" t="s">
         <v>318</v>
       </c>
-      <c r="F15" s="35" t="s">
+      <c r="F15" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="G15" s="35" t="s">
+      <c r="G15" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="H15" s="35" t="s">
+      <c r="H15" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="I15" s="35"/>
+      <c r="I15" s="32"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
       <c r="L15" s="7"/>
@@ -5135,29 +5135,29 @@
       <c r="Z15" s="8"/>
     </row>
     <row r="16" spans="1:26" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="34">
+      <c r="A16" s="31">
         <v>13</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="32"/>
-      <c r="D16" s="35" t="s">
+      <c r="C16" s="34"/>
+      <c r="D16" s="32" t="s">
         <v>64</v>
       </c>
       <c r="E16" s="29" t="s">
         <v>318</v>
       </c>
-      <c r="F16" s="35" t="s">
+      <c r="F16" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="G16" s="35" t="s">
+      <c r="G16" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="H16" s="35" t="s">
+      <c r="H16" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="I16" s="35"/>
+      <c r="I16" s="32"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
       <c r="L16" s="7"/>
@@ -5177,29 +5177,29 @@
       <c r="Z16" s="8"/>
     </row>
     <row r="17" spans="1:26" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="34">
+      <c r="A17" s="31">
         <v>14</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="35" t="s">
+      <c r="C17" s="34"/>
+      <c r="D17" s="32" t="s">
         <v>69</v>
       </c>
       <c r="E17" s="29" t="s">
         <v>318</v>
       </c>
-      <c r="F17" s="35" t="s">
+      <c r="F17" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="G17" s="35" t="s">
+      <c r="G17" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="H17" s="35" t="s">
+      <c r="H17" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="I17" s="35"/>
+      <c r="I17" s="32"/>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
       <c r="L17" s="7"/>
@@ -5219,29 +5219,29 @@
       <c r="Z17" s="8"/>
     </row>
     <row r="18" spans="1:26" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="34">
+      <c r="A18" s="31">
         <v>15</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="35" t="s">
+      <c r="C18" s="34"/>
+      <c r="D18" s="32" t="s">
         <v>73</v>
       </c>
       <c r="E18" s="29" t="s">
         <v>318</v>
       </c>
-      <c r="F18" s="35" t="s">
+      <c r="F18" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="G18" s="35" t="s">
+      <c r="G18" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="H18" s="35" t="s">
+      <c r="H18" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="I18" s="35"/>
+      <c r="I18" s="32"/>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
       <c r="L18" s="7"/>
@@ -5261,29 +5261,29 @@
       <c r="Z18" s="8"/>
     </row>
     <row r="19" spans="1:26" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="34">
+      <c r="A19" s="31">
         <v>16</v>
       </c>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="35" t="s">
+      <c r="C19" s="34"/>
+      <c r="D19" s="32" t="s">
         <v>77</v>
       </c>
       <c r="E19" s="29" t="s">
         <v>318</v>
       </c>
-      <c r="F19" s="35" t="s">
+      <c r="F19" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="G19" s="36" t="s">
+      <c r="G19" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="H19" s="35" t="s">
+      <c r="H19" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="I19" s="35"/>
+      <c r="I19" s="32"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
       <c r="L19" s="7"/>
@@ -5303,29 +5303,29 @@
       <c r="Z19" s="8"/>
     </row>
     <row r="20" spans="1:26" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="34">
+      <c r="A20" s="31">
         <v>17</v>
       </c>
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="32"/>
-      <c r="D20" s="35" t="s">
+      <c r="C20" s="34"/>
+      <c r="D20" s="32" t="s">
         <v>82</v>
       </c>
       <c r="E20" s="29" t="s">
         <v>318</v>
       </c>
-      <c r="F20" s="35" t="s">
+      <c r="F20" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="G20" s="35" t="s">
+      <c r="G20" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="H20" s="35" t="s">
+      <c r="H20" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="I20" s="35"/>
+      <c r="I20" s="32"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
       <c r="L20" s="7"/>
@@ -5345,29 +5345,29 @@
       <c r="Z20" s="8"/>
     </row>
     <row r="21" spans="1:26" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="34">
+      <c r="A21" s="31">
         <v>18</v>
       </c>
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="C21" s="32"/>
-      <c r="D21" s="35" t="s">
+      <c r="C21" s="34"/>
+      <c r="D21" s="32" t="s">
         <v>85</v>
       </c>
       <c r="E21" s="29" t="s">
         <v>318</v>
       </c>
-      <c r="F21" s="35" t="s">
+      <c r="F21" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="G21" s="35" t="s">
+      <c r="G21" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="H21" s="35" t="s">
+      <c r="H21" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="I21" s="35"/>
+      <c r="I21" s="32"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
       <c r="L21" s="7"/>
@@ -5387,29 +5387,29 @@
       <c r="Z21" s="8"/>
     </row>
     <row r="22" spans="1:26" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="34">
+      <c r="A22" s="31">
         <v>19</v>
       </c>
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="C22" s="32"/>
-      <c r="D22" s="35" t="s">
+      <c r="C22" s="34"/>
+      <c r="D22" s="32" t="s">
         <v>88</v>
       </c>
       <c r="E22" s="29" t="s">
         <v>318</v>
       </c>
-      <c r="F22" s="35" t="s">
+      <c r="F22" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="G22" s="35" t="s">
+      <c r="G22" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="H22" s="35" t="s">
+      <c r="H22" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="I22" s="35"/>
+      <c r="I22" s="32"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
       <c r="L22" s="7"/>
@@ -5429,29 +5429,29 @@
       <c r="Z22" s="8"/>
     </row>
     <row r="23" spans="1:26" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="34">
+      <c r="A23" s="31">
         <v>20</v>
       </c>
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="C23" s="32"/>
-      <c r="D23" s="35" t="s">
+      <c r="C23" s="34"/>
+      <c r="D23" s="32" t="s">
         <v>93</v>
       </c>
       <c r="E23" s="29" t="s">
         <v>318</v>
       </c>
-      <c r="F23" s="35" t="s">
+      <c r="F23" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="G23" s="36" t="s">
+      <c r="G23" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="H23" s="35" t="s">
+      <c r="H23" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="I23" s="35"/>
+      <c r="I23" s="32"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
       <c r="L23" s="7"/>
@@ -5471,27 +5471,27 @@
       <c r="Z23" s="8"/>
     </row>
     <row r="24" spans="1:26" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="34">
+      <c r="A24" s="31">
         <v>21</v>
       </c>
-      <c r="B24" s="35" t="s">
+      <c r="B24" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="C24" s="32"/>
-      <c r="D24" s="35" t="s">
+      <c r="C24" s="34"/>
+      <c r="D24" s="32" t="s">
         <v>97</v>
       </c>
       <c r="E24" s="29" t="s">
         <v>318</v>
       </c>
-      <c r="F24" s="35" t="s">
+      <c r="F24" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35" t="s">
+      <c r="G24" s="32"/>
+      <c r="H24" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="I24" s="35"/>
+      <c r="I24" s="32"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
       <c r="L24" s="7"/>
@@ -5511,29 +5511,29 @@
       <c r="Z24" s="8"/>
     </row>
     <row r="25" spans="1:26" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="34">
+      <c r="A25" s="31">
         <v>22</v>
       </c>
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="C25" s="32"/>
-      <c r="D25" s="35" t="s">
+      <c r="C25" s="34"/>
+      <c r="D25" s="32" t="s">
         <v>101</v>
       </c>
       <c r="E25" s="29" t="s">
         <v>318</v>
       </c>
-      <c r="F25" s="35" t="s">
+      <c r="F25" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="G25" s="35" t="s">
+      <c r="G25" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="H25" s="35" t="s">
+      <c r="H25" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="I25" s="35"/>
+      <c r="I25" s="32"/>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
       <c r="L25" s="7"/>
@@ -5553,27 +5553,27 @@
       <c r="Z25" s="8"/>
     </row>
     <row r="26" spans="1:26" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="34">
+      <c r="A26" s="31">
         <v>23</v>
       </c>
-      <c r="B26" s="35" t="s">
+      <c r="B26" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="32"/>
-      <c r="D26" s="35" t="s">
+      <c r="C26" s="34"/>
+      <c r="D26" s="32" t="s">
         <v>106</v>
       </c>
       <c r="E26" s="29" t="s">
         <v>318</v>
       </c>
-      <c r="F26" s="35" t="s">
+      <c r="F26" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35" t="s">
+      <c r="G26" s="32"/>
+      <c r="H26" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="I26" s="35"/>
+      <c r="I26" s="32"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
       <c r="L26" s="7"/>
@@ -5593,27 +5593,27 @@
       <c r="Z26" s="8"/>
     </row>
     <row r="27" spans="1:26" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="34">
+      <c r="A27" s="31">
         <v>24</v>
       </c>
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="C27" s="32"/>
-      <c r="D27" s="35" t="s">
+      <c r="C27" s="34"/>
+      <c r="D27" s="32" t="s">
         <v>110</v>
       </c>
       <c r="E27" s="29" t="s">
         <v>318</v>
       </c>
-      <c r="F27" s="35" t="s">
+      <c r="F27" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35" t="s">
+      <c r="G27" s="32"/>
+      <c r="H27" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="I27" s="35"/>
+      <c r="I27" s="32"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
       <c r="L27" s="7"/>
@@ -5633,31 +5633,31 @@
       <c r="Z27" s="8"/>
     </row>
     <row r="28" spans="1:26" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="34">
+      <c r="A28" s="31">
         <v>25</v>
       </c>
-      <c r="B28" s="35" t="s">
+      <c r="B28" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="C28" s="37" t="s">
+      <c r="C28" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="D28" s="35" t="s">
+      <c r="D28" s="32" t="s">
         <v>115</v>
       </c>
       <c r="E28" s="29" t="s">
         <v>318</v>
       </c>
-      <c r="F28" s="35" t="s">
+      <c r="F28" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="G28" s="35" t="s">
+      <c r="G28" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="H28" s="35" t="s">
+      <c r="H28" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="I28" s="35"/>
+      <c r="I28" s="32"/>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
       <c r="L28" s="7"/>
@@ -5677,29 +5677,29 @@
       <c r="Z28" s="8"/>
     </row>
     <row r="29" spans="1:26" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="34">
+      <c r="A29" s="31">
         <v>26</v>
       </c>
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="C29" s="37"/>
-      <c r="D29" s="35" t="s">
+      <c r="C29" s="35"/>
+      <c r="D29" s="32" t="s">
         <v>119</v>
       </c>
       <c r="E29" s="29" t="s">
         <v>318</v>
       </c>
-      <c r="F29" s="35" t="s">
+      <c r="F29" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="G29" s="35" t="s">
+      <c r="G29" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="H29" s="35" t="s">
+      <c r="H29" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="I29" s="35"/>
+      <c r="I29" s="32"/>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
       <c r="L29" s="7"/>
@@ -5719,29 +5719,29 @@
       <c r="Z29" s="8"/>
     </row>
     <row r="30" spans="1:26" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="34">
+      <c r="A30" s="31">
         <v>27</v>
       </c>
-      <c r="B30" s="35" t="s">
+      <c r="B30" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="C30" s="37"/>
-      <c r="D30" s="35" t="s">
+      <c r="C30" s="35"/>
+      <c r="D30" s="32" t="s">
         <v>123</v>
       </c>
       <c r="E30" s="29" t="s">
         <v>318</v>
       </c>
-      <c r="F30" s="35" t="s">
+      <c r="F30" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="G30" s="35" t="s">
+      <c r="G30" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="H30" s="35" t="s">
+      <c r="H30" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="I30" s="35"/>
+      <c r="I30" s="32"/>
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
       <c r="L30" s="7"/>
@@ -5761,29 +5761,29 @@
       <c r="Z30" s="8"/>
     </row>
     <row r="31" spans="1:26" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="34">
+      <c r="A31" s="31">
         <v>28</v>
       </c>
-      <c r="B31" s="35" t="s">
+      <c r="B31" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="C31" s="37"/>
-      <c r="D31" s="35" t="s">
+      <c r="C31" s="35"/>
+      <c r="D31" s="32" t="s">
         <v>127</v>
       </c>
       <c r="E31" s="29" t="s">
         <v>318</v>
       </c>
-      <c r="F31" s="35" t="s">
+      <c r="F31" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="G31" s="35" t="s">
+      <c r="G31" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="H31" s="35" t="s">
+      <c r="H31" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="I31" s="35"/>
+      <c r="I31" s="32"/>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
       <c r="L31" s="7"/>
@@ -5803,29 +5803,29 @@
       <c r="Z31" s="8"/>
     </row>
     <row r="32" spans="1:26" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="34">
+      <c r="A32" s="31">
         <v>29</v>
       </c>
-      <c r="B32" s="35" t="s">
+      <c r="B32" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="C32" s="37"/>
-      <c r="D32" s="35" t="s">
+      <c r="C32" s="35"/>
+      <c r="D32" s="32" t="s">
         <v>131</v>
       </c>
       <c r="E32" s="29" t="s">
         <v>318</v>
       </c>
-      <c r="F32" s="35" t="s">
+      <c r="F32" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="G32" s="35" t="s">
+      <c r="G32" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="H32" s="35" t="s">
+      <c r="H32" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="I32" s="35"/>
+      <c r="I32" s="32"/>
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
       <c r="L32" s="7"/>
@@ -5845,29 +5845,29 @@
       <c r="Z32" s="8"/>
     </row>
     <row r="33" spans="1:26" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="34">
+      <c r="A33" s="31">
         <v>30</v>
       </c>
-      <c r="B33" s="35" t="s">
+      <c r="B33" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="C33" s="37"/>
-      <c r="D33" s="35" t="s">
+      <c r="C33" s="35"/>
+      <c r="D33" s="32" t="s">
         <v>136</v>
       </c>
       <c r="E33" s="29" t="s">
         <v>318</v>
       </c>
-      <c r="F33" s="35" t="s">
+      <c r="F33" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="G33" s="35" t="s">
+      <c r="G33" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="H33" s="35" t="s">
+      <c r="H33" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="I33" s="35"/>
+      <c r="I33" s="32"/>
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
       <c r="L33" s="7"/>
@@ -5887,29 +5887,29 @@
       <c r="Z33" s="8"/>
     </row>
     <row r="34" spans="1:26" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="34">
+      <c r="A34" s="31">
         <v>31</v>
       </c>
-      <c r="B34" s="35" t="s">
+      <c r="B34" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="C34" s="37"/>
-      <c r="D34" s="35" t="s">
+      <c r="C34" s="35"/>
+      <c r="D34" s="32" t="s">
         <v>141</v>
       </c>
       <c r="E34" s="29" t="s">
         <v>318</v>
       </c>
-      <c r="F34" s="35" t="s">
+      <c r="F34" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="G34" s="35" t="s">
+      <c r="G34" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="H34" s="35" t="s">
+      <c r="H34" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="I34" s="35"/>
+      <c r="I34" s="32"/>
       <c r="J34" s="6"/>
       <c r="K34" s="6"/>
       <c r="L34" s="7"/>
@@ -5929,29 +5929,29 @@
       <c r="Z34" s="8"/>
     </row>
     <row r="35" spans="1:26" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="34">
+      <c r="A35" s="31">
         <v>32</v>
       </c>
-      <c r="B35" s="35" t="s">
+      <c r="B35" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="C35" s="37"/>
-      <c r="D35" s="35" t="s">
+      <c r="C35" s="35"/>
+      <c r="D35" s="32" t="s">
         <v>144</v>
       </c>
       <c r="E35" s="29" t="s">
         <v>318</v>
       </c>
-      <c r="F35" s="35" t="s">
+      <c r="F35" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="G35" s="35" t="s">
+      <c r="G35" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="H35" s="35" t="s">
+      <c r="H35" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="I35" s="35"/>
+      <c r="I35" s="32"/>
       <c r="J35" s="6"/>
       <c r="K35" s="6"/>
       <c r="L35" s="7"/>
@@ -5971,29 +5971,29 @@
       <c r="Z35" s="8"/>
     </row>
     <row r="36" spans="1:26" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="34">
+      <c r="A36" s="31">
         <v>33</v>
       </c>
-      <c r="B36" s="35" t="s">
+      <c r="B36" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="C36" s="37"/>
-      <c r="D36" s="35" t="s">
+      <c r="C36" s="35"/>
+      <c r="D36" s="32" t="s">
         <v>149</v>
       </c>
       <c r="E36" s="29" t="s">
         <v>318</v>
       </c>
-      <c r="F36" s="35" t="s">
+      <c r="F36" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="G36" s="35" t="s">
+      <c r="G36" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="H36" s="35" t="s">
+      <c r="H36" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="I36" s="35"/>
+      <c r="I36" s="32"/>
       <c r="J36" s="6"/>
       <c r="K36" s="6"/>
       <c r="L36" s="7"/>
@@ -6013,27 +6013,27 @@
       <c r="Z36" s="8"/>
     </row>
     <row r="37" spans="1:26" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="34">
+      <c r="A37" s="31">
         <v>34</v>
       </c>
-      <c r="B37" s="35" t="s">
+      <c r="B37" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="C37" s="37"/>
-      <c r="D37" s="35" t="s">
+      <c r="C37" s="35"/>
+      <c r="D37" s="32" t="s">
         <v>154</v>
       </c>
       <c r="E37" s="29" t="s">
         <v>318</v>
       </c>
-      <c r="F37" s="35" t="s">
+      <c r="F37" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35" t="s">
+      <c r="G37" s="32"/>
+      <c r="H37" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="I37" s="35"/>
+      <c r="I37" s="32"/>
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
       <c r="L37" s="7"/>
@@ -6053,27 +6053,27 @@
       <c r="Z37" s="8"/>
     </row>
     <row r="38" spans="1:26" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="34">
+      <c r="A38" s="31">
         <v>35</v>
       </c>
-      <c r="B38" s="35" t="s">
+      <c r="B38" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="C38" s="37"/>
-      <c r="D38" s="35" t="s">
+      <c r="C38" s="35"/>
+      <c r="D38" s="32" t="s">
         <v>157</v>
       </c>
       <c r="E38" s="29" t="s">
         <v>318</v>
       </c>
-      <c r="F38" s="35" t="s">
+      <c r="F38" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="G38" s="35"/>
-      <c r="H38" s="35" t="s">
+      <c r="G38" s="32"/>
+      <c r="H38" s="32" t="s">
         <v>159</v>
       </c>
-      <c r="I38" s="35"/>
+      <c r="I38" s="32"/>
       <c r="J38" s="6"/>
       <c r="K38" s="6"/>
       <c r="L38" s="7"/>
@@ -6093,29 +6093,29 @@
       <c r="Z38" s="8"/>
     </row>
     <row r="39" spans="1:26" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="34">
+      <c r="A39" s="31">
         <v>36</v>
       </c>
-      <c r="B39" s="35" t="s">
+      <c r="B39" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="C39" s="37"/>
-      <c r="D39" s="35" t="s">
+      <c r="C39" s="35"/>
+      <c r="D39" s="32" t="s">
         <v>161</v>
       </c>
       <c r="E39" s="29" t="s">
         <v>318</v>
       </c>
-      <c r="F39" s="35" t="s">
+      <c r="F39" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="G39" s="35" t="s">
+      <c r="G39" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="H39" s="35" t="s">
+      <c r="H39" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="I39" s="35"/>
+      <c r="I39" s="32"/>
       <c r="J39" s="6"/>
       <c r="K39" s="6"/>
       <c r="L39" s="7"/>
@@ -6135,29 +6135,29 @@
       <c r="Z39" s="8"/>
     </row>
     <row r="40" spans="1:26" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="34">
+      <c r="A40" s="31">
         <v>37</v>
       </c>
-      <c r="B40" s="35" t="s">
+      <c r="B40" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="C40" s="37"/>
-      <c r="D40" s="35" t="s">
+      <c r="C40" s="35"/>
+      <c r="D40" s="32" t="s">
         <v>165</v>
       </c>
       <c r="E40" s="29" t="s">
         <v>318</v>
       </c>
-      <c r="F40" s="35" t="s">
+      <c r="F40" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="G40" s="35" t="s">
+      <c r="G40" s="32" t="s">
         <v>167</v>
       </c>
-      <c r="H40" s="35" t="s">
+      <c r="H40" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="I40" s="35"/>
+      <c r="I40" s="32"/>
       <c r="J40" s="6"/>
       <c r="K40" s="6"/>
       <c r="L40" s="7"/>
@@ -6177,29 +6177,29 @@
       <c r="Z40" s="8"/>
     </row>
     <row r="41" spans="1:26" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="34">
+      <c r="A41" s="31">
         <v>38</v>
       </c>
-      <c r="B41" s="35" t="s">
+      <c r="B41" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="C41" s="37"/>
-      <c r="D41" s="35" t="s">
+      <c r="C41" s="35"/>
+      <c r="D41" s="32" t="s">
         <v>169</v>
       </c>
       <c r="E41" s="29" t="s">
         <v>318</v>
       </c>
-      <c r="F41" s="35" t="s">
+      <c r="F41" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="G41" s="35" t="s">
+      <c r="G41" s="32" t="s">
         <v>170</v>
       </c>
-      <c r="H41" s="35" t="s">
+      <c r="H41" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="I41" s="35"/>
+      <c r="I41" s="32"/>
       <c r="J41" s="6"/>
       <c r="K41" s="6"/>
       <c r="L41" s="7"/>
@@ -6219,29 +6219,29 @@
       <c r="Z41" s="8"/>
     </row>
     <row r="42" spans="1:26" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="34">
+      <c r="A42" s="31">
         <v>39</v>
       </c>
-      <c r="B42" s="35" t="s">
+      <c r="B42" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="C42" s="37"/>
-      <c r="D42" s="35" t="s">
+      <c r="C42" s="35"/>
+      <c r="D42" s="32" t="s">
         <v>172</v>
       </c>
       <c r="E42" s="29" t="s">
         <v>318</v>
       </c>
-      <c r="F42" s="35" t="s">
+      <c r="F42" s="32" t="s">
         <v>173</v>
       </c>
-      <c r="G42" s="35" t="s">
+      <c r="G42" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="H42" s="35" t="s">
+      <c r="H42" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="I42" s="35"/>
+      <c r="I42" s="32"/>
       <c r="J42" s="6"/>
       <c r="K42" s="6"/>
       <c r="L42" s="7"/>
@@ -6261,29 +6261,29 @@
       <c r="Z42" s="8"/>
     </row>
     <row r="43" spans="1:26" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="34">
+      <c r="A43" s="31">
         <v>40</v>
       </c>
-      <c r="B43" s="35" t="s">
+      <c r="B43" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="C43" s="37"/>
-      <c r="D43" s="35" t="s">
+      <c r="C43" s="35"/>
+      <c r="D43" s="32" t="s">
         <v>176</v>
       </c>
       <c r="E43" s="29" t="s">
         <v>318</v>
       </c>
-      <c r="F43" s="35" t="s">
+      <c r="F43" s="32" t="s">
         <v>177</v>
       </c>
-      <c r="G43" s="35" t="s">
+      <c r="G43" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="H43" s="35" t="s">
+      <c r="H43" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="I43" s="35"/>
+      <c r="I43" s="32"/>
       <c r="J43" s="6"/>
       <c r="K43" s="6"/>
       <c r="L43" s="7"/>
@@ -6303,27 +6303,27 @@
       <c r="Z43" s="8"/>
     </row>
     <row r="44" spans="1:26" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="34">
+      <c r="A44" s="31">
         <v>41</v>
       </c>
-      <c r="B44" s="35" t="s">
+      <c r="B44" s="32" t="s">
         <v>179</v>
       </c>
-      <c r="C44" s="37"/>
-      <c r="D44" s="35" t="s">
+      <c r="C44" s="35"/>
+      <c r="D44" s="32" t="s">
         <v>180</v>
       </c>
       <c r="E44" s="29" t="s">
         <v>318</v>
       </c>
-      <c r="F44" s="35" t="s">
+      <c r="F44" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="G44" s="35"/>
-      <c r="H44" s="35" t="s">
+      <c r="G44" s="32"/>
+      <c r="H44" s="32" t="s">
         <v>182</v>
       </c>
-      <c r="I44" s="35"/>
+      <c r="I44" s="32"/>
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
       <c r="L44" s="7"/>
@@ -6343,27 +6343,27 @@
       <c r="Z44" s="8"/>
     </row>
     <row r="45" spans="1:26" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="34">
+      <c r="A45" s="31">
         <v>42</v>
       </c>
-      <c r="B45" s="35" t="s">
+      <c r="B45" s="32" t="s">
         <v>183</v>
       </c>
-      <c r="C45" s="37"/>
-      <c r="D45" s="35" t="s">
+      <c r="C45" s="35"/>
+      <c r="D45" s="32" t="s">
         <v>184</v>
       </c>
       <c r="E45" s="29" t="s">
         <v>318</v>
       </c>
-      <c r="F45" s="35" t="s">
+      <c r="F45" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="G45" s="35"/>
-      <c r="H45" s="35" t="s">
+      <c r="G45" s="32"/>
+      <c r="H45" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="I45" s="35"/>
+      <c r="I45" s="32"/>
       <c r="J45" s="6"/>
       <c r="K45" s="6"/>
       <c r="L45" s="7"/>
@@ -6383,29 +6383,29 @@
       <c r="Z45" s="8"/>
     </row>
     <row r="46" spans="1:26" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="34">
+      <c r="A46" s="31">
         <v>43</v>
       </c>
-      <c r="B46" s="35" t="s">
+      <c r="B46" s="32" t="s">
         <v>187</v>
       </c>
-      <c r="C46" s="38" t="s">
+      <c r="C46" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="D46" s="35" t="s">
+      <c r="D46" s="32" t="s">
         <v>189</v>
       </c>
-      <c r="E46" s="35" t="s">
+      <c r="E46" s="32" t="s">
         <v>319</v>
       </c>
-      <c r="F46" s="35" t="s">
+      <c r="F46" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="G46" s="35"/>
-      <c r="H46" s="35" t="s">
+      <c r="G46" s="32"/>
+      <c r="H46" s="32" t="s">
         <v>191</v>
       </c>
-      <c r="I46" s="35"/>
+      <c r="I46" s="32"/>
       <c r="J46" s="6"/>
       <c r="K46" s="6"/>
       <c r="L46" s="7"/>
@@ -6425,27 +6425,27 @@
       <c r="Z46" s="8"/>
     </row>
     <row r="47" spans="1:26" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="34">
+      <c r="A47" s="31">
         <v>44</v>
       </c>
-      <c r="B47" s="35" t="s">
+      <c r="B47" s="32" t="s">
         <v>192</v>
       </c>
-      <c r="C47" s="32"/>
-      <c r="D47" s="35" t="s">
+      <c r="C47" s="34"/>
+      <c r="D47" s="32" t="s">
         <v>193</v>
       </c>
-      <c r="E47" s="35" t="s">
+      <c r="E47" s="32" t="s">
         <v>319</v>
       </c>
-      <c r="F47" s="35" t="s">
+      <c r="F47" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="G47" s="35"/>
-      <c r="H47" s="35" t="s">
+      <c r="G47" s="32"/>
+      <c r="H47" s="32" t="s">
         <v>194</v>
       </c>
-      <c r="I47" s="35"/>
+      <c r="I47" s="32"/>
       <c r="J47" s="6"/>
       <c r="K47" s="6"/>
       <c r="L47" s="7"/>
@@ -6465,27 +6465,27 @@
       <c r="Z47" s="8"/>
     </row>
     <row r="48" spans="1:26" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="34">
+      <c r="A48" s="31">
         <v>45</v>
       </c>
-      <c r="B48" s="35" t="s">
+      <c r="B48" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="C48" s="32"/>
-      <c r="D48" s="35" t="s">
+      <c r="C48" s="34"/>
+      <c r="D48" s="32" t="s">
         <v>196</v>
       </c>
-      <c r="E48" s="35" t="s">
+      <c r="E48" s="32" t="s">
         <v>319</v>
       </c>
-      <c r="F48" s="35" t="s">
+      <c r="F48" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="G48" s="35"/>
-      <c r="H48" s="35" t="s">
+      <c r="G48" s="32"/>
+      <c r="H48" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="I48" s="35"/>
+      <c r="I48" s="32"/>
       <c r="J48" s="6"/>
       <c r="K48" s="6"/>
       <c r="L48" s="7"/>
@@ -6511,11 +6511,11 @@
       <c r="B49" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="C49" s="32"/>
+      <c r="C49" s="34"/>
       <c r="D49" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="E49" s="35" t="s">
+      <c r="E49" s="32" t="s">
         <v>319</v>
       </c>
       <c r="F49" s="29" t="s">
@@ -6551,11 +6551,11 @@
       <c r="B50" s="29" t="s">
         <v>201</v>
       </c>
-      <c r="C50" s="32"/>
+      <c r="C50" s="34"/>
       <c r="D50" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="E50" s="35" t="s">
+      <c r="E50" s="32" t="s">
         <v>319</v>
       </c>
       <c r="F50" s="29" t="s">
@@ -6591,11 +6591,11 @@
       <c r="B51" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="C51" s="32"/>
+      <c r="C51" s="34"/>
       <c r="D51" s="29" t="s">
         <v>205</v>
       </c>
-      <c r="E51" s="35" t="s">
+      <c r="E51" s="32" t="s">
         <v>319</v>
       </c>
       <c r="F51" s="29" t="s">
@@ -6631,11 +6631,11 @@
       <c r="B52" s="29" t="s">
         <v>208</v>
       </c>
-      <c r="C52" s="32"/>
+      <c r="C52" s="34"/>
       <c r="D52" s="29" t="s">
         <v>209</v>
       </c>
-      <c r="E52" s="35" t="s">
+      <c r="E52" s="32" t="s">
         <v>319</v>
       </c>
       <c r="F52" s="29" t="s">
@@ -6671,11 +6671,11 @@
       <c r="B53" s="29" t="s">
         <v>212</v>
       </c>
-      <c r="C53" s="32"/>
+      <c r="C53" s="34"/>
       <c r="D53" s="29" t="s">
         <v>213</v>
       </c>
-      <c r="E53" s="35" t="s">
+      <c r="E53" s="32" t="s">
         <v>319</v>
       </c>
       <c r="F53" s="29" t="s">
@@ -6711,11 +6711,11 @@
       <c r="B54" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="C54" s="32"/>
+      <c r="C54" s="34"/>
       <c r="D54" s="29" t="s">
         <v>217</v>
       </c>
-      <c r="E54" s="35" t="s">
+      <c r="E54" s="32" t="s">
         <v>319</v>
       </c>
       <c r="F54" s="29" t="s">
@@ -6751,11 +6751,11 @@
       <c r="B55" s="29" t="s">
         <v>218</v>
       </c>
-      <c r="C55" s="32"/>
+      <c r="C55" s="34"/>
       <c r="D55" s="29" t="s">
         <v>219</v>
       </c>
-      <c r="E55" s="35" t="s">
+      <c r="E55" s="32" t="s">
         <v>319</v>
       </c>
       <c r="F55" s="29" t="s">
@@ -6791,11 +6791,11 @@
       <c r="B56" s="29" t="s">
         <v>222</v>
       </c>
-      <c r="C56" s="32"/>
+      <c r="C56" s="34"/>
       <c r="D56" s="29" t="s">
         <v>223</v>
       </c>
-      <c r="E56" s="35" t="s">
+      <c r="E56" s="32" t="s">
         <v>319</v>
       </c>
       <c r="F56" s="29" t="s">
@@ -6831,11 +6831,11 @@
       <c r="B57" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="C57" s="32"/>
+      <c r="C57" s="34"/>
       <c r="D57" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="E57" s="35" t="s">
+      <c r="E57" s="32" t="s">
         <v>319</v>
       </c>
       <c r="F57" s="29" t="s">
@@ -6871,11 +6871,11 @@
       <c r="B58" s="29" t="s">
         <v>229</v>
       </c>
-      <c r="C58" s="32"/>
+      <c r="C58" s="34"/>
       <c r="D58" s="29" t="s">
         <v>230</v>
       </c>
-      <c r="E58" s="35" t="s">
+      <c r="E58" s="32" t="s">
         <v>319</v>
       </c>
       <c r="F58" s="29" t="s">
@@ -6911,11 +6911,11 @@
       <c r="B59" s="29" t="s">
         <v>233</v>
       </c>
-      <c r="C59" s="32"/>
+      <c r="C59" s="34"/>
       <c r="D59" s="29" t="s">
         <v>234</v>
       </c>
-      <c r="E59" s="35" t="s">
+      <c r="E59" s="32" t="s">
         <v>319</v>
       </c>
       <c r="F59" s="29" t="s">
@@ -6951,11 +6951,11 @@
       <c r="B60" s="29" t="s">
         <v>237</v>
       </c>
-      <c r="C60" s="32"/>
-      <c r="D60" s="31" t="s">
+      <c r="C60" s="34"/>
+      <c r="D60" s="30" t="s">
         <v>238</v>
       </c>
-      <c r="E60" s="35" t="s">
+      <c r="E60" s="32" t="s">
         <v>319</v>
       </c>
       <c r="F60" s="29" t="s">
@@ -6991,11 +6991,11 @@
       <c r="B61" s="29" t="s">
         <v>241</v>
       </c>
-      <c r="C61" s="32"/>
-      <c r="D61" s="31" t="s">
+      <c r="C61" s="34"/>
+      <c r="D61" s="30" t="s">
         <v>242</v>
       </c>
-      <c r="E61" s="35" t="s">
+      <c r="E61" s="32" t="s">
         <v>319</v>
       </c>
       <c r="F61" s="29" t="s">
@@ -7031,11 +7031,11 @@
       <c r="B62" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="C62" s="32"/>
-      <c r="D62" s="31" t="s">
+      <c r="C62" s="34"/>
+      <c r="D62" s="30" t="s">
         <v>246</v>
       </c>
-      <c r="E62" s="35" t="s">
+      <c r="E62" s="32" t="s">
         <v>319</v>
       </c>
       <c r="F62" s="29" t="s">
@@ -7071,11 +7071,11 @@
       <c r="B63" s="29" t="s">
         <v>249</v>
       </c>
-      <c r="C63" s="32"/>
-      <c r="D63" s="31" t="s">
+      <c r="C63" s="34"/>
+      <c r="D63" s="30" t="s">
         <v>246</v>
       </c>
-      <c r="E63" s="35" t="s">
+      <c r="E63" s="32" t="s">
         <v>319</v>
       </c>
       <c r="F63" s="29" t="s">
@@ -7111,11 +7111,11 @@
       <c r="B64" s="29" t="s">
         <v>250</v>
       </c>
-      <c r="C64" s="32"/>
-      <c r="D64" s="31" t="s">
+      <c r="C64" s="34"/>
+      <c r="D64" s="30" t="s">
         <v>251</v>
       </c>
-      <c r="E64" s="35" t="s">
+      <c r="E64" s="32" t="s">
         <v>319</v>
       </c>
       <c r="F64" s="29" t="s">
@@ -7151,11 +7151,11 @@
       <c r="B65" s="29" t="s">
         <v>253</v>
       </c>
-      <c r="C65" s="32"/>
-      <c r="D65" s="31" t="s">
+      <c r="C65" s="34"/>
+      <c r="D65" s="30" t="s">
         <v>254</v>
       </c>
-      <c r="E65" s="35" t="s">
+      <c r="E65" s="32" t="s">
         <v>319</v>
       </c>
       <c r="F65" s="29" t="s">
@@ -7191,11 +7191,11 @@
       <c r="B66" s="29" t="s">
         <v>257</v>
       </c>
-      <c r="C66" s="32"/>
-      <c r="D66" s="31" t="s">
+      <c r="C66" s="34"/>
+      <c r="D66" s="30" t="s">
         <v>258</v>
       </c>
-      <c r="E66" s="35" t="s">
+      <c r="E66" s="32" t="s">
         <v>319</v>
       </c>
       <c r="F66" s="29" t="s">
@@ -7231,11 +7231,11 @@
       <c r="B67" s="29" t="s">
         <v>260</v>
       </c>
-      <c r="C67" s="32"/>
-      <c r="D67" s="31" t="s">
+      <c r="C67" s="34"/>
+      <c r="D67" s="30" t="s">
         <v>261</v>
       </c>
-      <c r="E67" s="35" t="s">
+      <c r="E67" s="32" t="s">
         <v>319</v>
       </c>
       <c r="F67" s="29" t="s">
@@ -7271,11 +7271,11 @@
       <c r="B68" s="29" t="s">
         <v>263</v>
       </c>
-      <c r="C68" s="32"/>
-      <c r="D68" s="31" t="s">
+      <c r="C68" s="34"/>
+      <c r="D68" s="30" t="s">
         <v>264</v>
       </c>
-      <c r="E68" s="35" t="s">
+      <c r="E68" s="32" t="s">
         <v>319</v>
       </c>
       <c r="F68" s="29" t="s">
@@ -7311,11 +7311,11 @@
       <c r="B69" s="29" t="s">
         <v>267</v>
       </c>
-      <c r="C69" s="32"/>
-      <c r="D69" s="31" t="s">
+      <c r="C69" s="34"/>
+      <c r="D69" s="30" t="s">
         <v>268</v>
       </c>
-      <c r="E69" s="35" t="s">
+      <c r="E69" s="32" t="s">
         <v>319</v>
       </c>
       <c r="F69" s="29" t="s">
@@ -7351,11 +7351,11 @@
       <c r="B70" s="29" t="s">
         <v>270</v>
       </c>
-      <c r="C70" s="32"/>
-      <c r="D70" s="31" t="s">
+      <c r="C70" s="34"/>
+      <c r="D70" s="30" t="s">
         <v>271</v>
       </c>
-      <c r="E70" s="35" t="s">
+      <c r="E70" s="32" t="s">
         <v>319</v>
       </c>
       <c r="F70" s="29" t="s">
@@ -7391,11 +7391,11 @@
       <c r="B71" s="29" t="s">
         <v>273</v>
       </c>
-      <c r="C71" s="32"/>
+      <c r="C71" s="34"/>
       <c r="D71" s="29" t="s">
         <v>274</v>
       </c>
-      <c r="E71" s="35" t="s">
+      <c r="E71" s="32" t="s">
         <v>319</v>
       </c>
       <c r="F71" s="29" t="s">
@@ -7431,11 +7431,11 @@
       <c r="B72" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="C72" s="32"/>
+      <c r="C72" s="34"/>
       <c r="D72" s="29" t="s">
         <v>278</v>
       </c>
-      <c r="E72" s="35" t="s">
+      <c r="E72" s="32" t="s">
         <v>320</v>
       </c>
       <c r="F72" s="29" t="s">
@@ -7477,14 +7477,14 @@
       <c r="D73" s="29" t="s">
         <v>283</v>
       </c>
-      <c r="E73" s="35" t="s">
+      <c r="E73" s="32" t="s">
         <v>319</v>
       </c>
       <c r="F73" s="29" t="s">
         <v>284</v>
       </c>
-      <c r="G73" s="31"/>
-      <c r="H73" s="31" t="s">
+      <c r="G73" s="30"/>
+      <c r="H73" s="30" t="s">
         <v>191</v>
       </c>
       <c r="I73" s="29"/>
@@ -7513,11 +7513,11 @@
       <c r="B74" s="29" t="s">
         <v>285</v>
       </c>
-      <c r="C74" s="32"/>
+      <c r="C74" s="34"/>
       <c r="D74" s="29" t="s">
         <v>286</v>
       </c>
-      <c r="E74" s="35" t="s">
+      <c r="E74" s="32" t="s">
         <v>319</v>
       </c>
       <c r="F74" s="29" t="s">
@@ -7553,11 +7553,11 @@
       <c r="B75" s="29" t="s">
         <v>288</v>
       </c>
-      <c r="C75" s="32"/>
+      <c r="C75" s="34"/>
       <c r="D75" s="29" t="s">
         <v>289</v>
       </c>
-      <c r="E75" s="35" t="s">
+      <c r="E75" s="32" t="s">
         <v>319</v>
       </c>
       <c r="F75" s="29" t="s">
@@ -7593,11 +7593,11 @@
       <c r="B76" s="29" t="s">
         <v>292</v>
       </c>
-      <c r="C76" s="32"/>
+      <c r="C76" s="34"/>
       <c r="D76" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="E76" s="35" t="s">
+      <c r="E76" s="32" t="s">
         <v>319</v>
       </c>
       <c r="F76" s="29" t="s">
@@ -7633,18 +7633,18 @@
       <c r="B77" s="29" t="s">
         <v>294</v>
       </c>
-      <c r="C77" s="32"/>
-      <c r="D77" s="31" t="s">
+      <c r="C77" s="34"/>
+      <c r="D77" s="30" t="s">
         <v>295</v>
       </c>
-      <c r="E77" s="35" t="s">
+      <c r="E77" s="32" t="s">
         <v>319</v>
       </c>
       <c r="F77" s="29" t="s">
         <v>284</v>
       </c>
-      <c r="G77" s="31"/>
-      <c r="H77" s="31" t="s">
+      <c r="G77" s="30"/>
+      <c r="H77" s="30" t="s">
         <v>296</v>
       </c>
       <c r="I77" s="29"/>
@@ -7673,18 +7673,18 @@
       <c r="B78" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="C78" s="32"/>
-      <c r="D78" s="31" t="s">
+      <c r="C78" s="34"/>
+      <c r="D78" s="30" t="s">
         <v>298</v>
       </c>
-      <c r="E78" s="35" t="s">
+      <c r="E78" s="32" t="s">
         <v>319</v>
       </c>
-      <c r="F78" s="31" t="s">
+      <c r="F78" s="30" t="s">
         <v>299</v>
       </c>
-      <c r="G78" s="31"/>
-      <c r="H78" s="31" t="s">
+      <c r="G78" s="30"/>
+      <c r="H78" s="30" t="s">
         <v>191</v>
       </c>
       <c r="I78" s="29"/>
@@ -7713,18 +7713,18 @@
       <c r="B79" s="29" t="s">
         <v>300</v>
       </c>
-      <c r="C79" s="32"/>
-      <c r="D79" s="31" t="s">
+      <c r="C79" s="34"/>
+      <c r="D79" s="30" t="s">
         <v>301</v>
       </c>
-      <c r="E79" s="35" t="s">
+      <c r="E79" s="32" t="s">
         <v>319</v>
       </c>
-      <c r="F79" s="31" t="s">
+      <c r="F79" s="30" t="s">
         <v>299</v>
       </c>
-      <c r="G79" s="31"/>
-      <c r="H79" s="31" t="s">
+      <c r="G79" s="30"/>
+      <c r="H79" s="30" t="s">
         <v>302</v>
       </c>
       <c r="I79" s="29"/>
@@ -7753,18 +7753,18 @@
       <c r="B80" s="29" t="s">
         <v>303</v>
       </c>
-      <c r="C80" s="32"/>
-      <c r="D80" s="31" t="s">
+      <c r="C80" s="34"/>
+      <c r="D80" s="30" t="s">
         <v>304</v>
       </c>
-      <c r="E80" s="35" t="s">
+      <c r="E80" s="32" t="s">
         <v>319</v>
       </c>
-      <c r="F80" s="31" t="s">
+      <c r="F80" s="30" t="s">
         <v>305</v>
       </c>
-      <c r="G80" s="31"/>
-      <c r="H80" s="31" t="s">
+      <c r="G80" s="30"/>
+      <c r="H80" s="30" t="s">
         <v>306</v>
       </c>
       <c r="I80" s="29"/>
@@ -7793,14 +7793,14 @@
       <c r="B81" s="29" t="s">
         <v>307</v>
       </c>
-      <c r="C81" s="32"/>
-      <c r="D81" s="31" t="s">
+      <c r="C81" s="34"/>
+      <c r="D81" s="30" t="s">
         <v>308</v>
       </c>
-      <c r="E81" s="35" t="s">
+      <c r="E81" s="32" t="s">
         <v>319</v>
       </c>
-      <c r="F81" s="31" t="s">
+      <c r="F81" s="30" t="s">
         <v>305</v>
       </c>
       <c r="G81" s="29"/>
@@ -7833,11 +7833,11 @@
       <c r="B82" s="29" t="s">
         <v>310</v>
       </c>
-      <c r="C82" s="32"/>
+      <c r="C82" s="34"/>
       <c r="D82" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="E82" s="35" t="s">
+      <c r="E82" s="32" t="s">
         <v>319</v>
       </c>
       <c r="F82" s="29" t="s">
@@ -7873,11 +7873,11 @@
       <c r="B83" s="29" t="s">
         <v>314</v>
       </c>
-      <c r="C83" s="32"/>
+      <c r="C83" s="34"/>
       <c r="D83" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="E83" s="35" t="s">
+      <c r="E83" s="32" t="s">
         <v>320</v>
       </c>
       <c r="F83" s="29" t="s">
